--- a/Grellow_Wiring_Plan.xlsx
+++ b/Grellow_Wiring_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Car Stuff\E36\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Car Stuff\E36\Grellow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1FDB28-A577-43E3-90CD-C3BB0ABD9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39CC41-8D56-4BA9-B163-FBECC69506AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28688" yWindow="-113" windowWidth="29025" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Circuits List" sheetId="24" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="221">
   <si>
     <t>Circuit Description</t>
   </si>
@@ -325,27 +325,6 @@
     <t>PDM Configured for button control + ECU control</t>
   </si>
   <si>
-    <t>Total Fuses</t>
-  </si>
-  <si>
-    <t>Big Relay</t>
-  </si>
-  <si>
-    <t>Small Relay</t>
-  </si>
-  <si>
-    <t>Spare Fuses</t>
-  </si>
-  <si>
-    <t>Spare Relays</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>Mapped</t>
-  </si>
-  <si>
     <t>Blower</t>
   </si>
   <si>
@@ -490,31 +469,13 @@
     <t>uPDM 7</t>
   </si>
   <si>
-    <t>uPDM 8</t>
-  </si>
-  <si>
     <t>Inline Fuse</t>
   </si>
   <si>
-    <t>uPDM 9</t>
-  </si>
-  <si>
-    <t>uPDM 10</t>
-  </si>
-  <si>
     <t>Brake Pedal</t>
   </si>
   <si>
-    <t>uPDM 11</t>
-  </si>
-  <si>
-    <t>uPDM 12</t>
-  </si>
-  <si>
     <t>Diff Cooler</t>
-  </si>
-  <si>
-    <t>uPDM 13</t>
   </si>
   <si>
     <t>Start Signal</t>
@@ -575,13 +536,226 @@
   <si>
     <t>Start Signal to 12V
 NC relay -&gt; coil GND</t>
+  </si>
+  <si>
+    <t>uPDM EXP 2</t>
+  </si>
+  <si>
+    <t>uPDM EXP 3</t>
+  </si>
+  <si>
+    <t>uPDM EXP 4</t>
+  </si>
+  <si>
+    <t>uPDM EXP 5</t>
+  </si>
+  <si>
+    <t>uPDM EXP 6</t>
+  </si>
+  <si>
+    <t>uPDM EXP 1</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>PDM_CAN_L</t>
+  </si>
+  <si>
+    <t>PDM_7</t>
+  </si>
+  <si>
+    <t>PDM_1</t>
+  </si>
+  <si>
+    <t>PDM_6</t>
+  </si>
+  <si>
+    <t>PDM_CAN_H</t>
+  </si>
+  <si>
+    <t>PDM_5</t>
+  </si>
+  <si>
+    <t>PDM_2</t>
+  </si>
+  <si>
+    <t>PDM_VBAT</t>
+  </si>
+  <si>
+    <t>PDM_IGN</t>
+  </si>
+  <si>
+    <t>PDM_4</t>
+  </si>
+  <si>
+    <t>PDM_EXP_IGN</t>
+  </si>
+  <si>
+    <t>PDM_EXP_VBAT</t>
+  </si>
+  <si>
+    <t>IGN</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>PDM_EXP_1</t>
+  </si>
+  <si>
+    <t>PDM_EXP_4</t>
+  </si>
+  <si>
+    <t>PDM_EXP_2</t>
+  </si>
+  <si>
+    <t>PDM_EXP_5</t>
+  </si>
+  <si>
+    <t>PDM_EXP_6</t>
+  </si>
+  <si>
+    <t>PDM_EXP_3</t>
+  </si>
+  <si>
+    <t>PDM_EXP_7</t>
+  </si>
+  <si>
+    <t>PDM_PAD_VBAT</t>
+  </si>
+  <si>
+    <t>COOLSUIT_VBAT</t>
+  </si>
+  <si>
+    <t>MIKU_VBAT</t>
+  </si>
+  <si>
+    <t>DRIV_AIR_VBAT</t>
+  </si>
+  <si>
+    <t>COOLSUIT_12V</t>
+  </si>
+  <si>
+    <t>UNLOAD</t>
+  </si>
+  <si>
+    <t>DRIV_AIR_12V</t>
+  </si>
+  <si>
+    <t>WIPER_12V</t>
+  </si>
+  <si>
+    <t>BLOWER_12V</t>
+  </si>
+  <si>
+    <t>WIPER_VBAT</t>
+  </si>
+  <si>
+    <t>BLOWER_VBAT</t>
+  </si>
+  <si>
+    <t>ACC_LIGHT_VBAT</t>
+  </si>
+  <si>
+    <t>UNLOAD_GND</t>
+  </si>
+  <si>
+    <t>ACC_LIGHT_12V</t>
+  </si>
+  <si>
+    <t>DIFF_COOL_VBAT</t>
+  </si>
+  <si>
+    <t>DIFF_COOL_12V</t>
+  </si>
+  <si>
+    <t>FUEL_PUMP_VBAT</t>
+  </si>
+  <si>
+    <t>FUEL_PUMP_12V</t>
+  </si>
+  <si>
+    <t>RADIO_12V</t>
+  </si>
+  <si>
+    <t>PDM_3</t>
+  </si>
+  <si>
+    <t>FOG_12V</t>
+  </si>
+  <si>
+    <t>FOG_VBAT</t>
+  </si>
+  <si>
+    <t>HORN_VBAT</t>
+  </si>
+  <si>
+    <t>HORN_12V</t>
+  </si>
+  <si>
+    <t>COIL_VBAT</t>
+  </si>
+  <si>
+    <t>COIL_12V</t>
+  </si>
+  <si>
+    <t>HEADLIGHT_VBAT</t>
+  </si>
+  <si>
+    <t>TRANS_PUMP_VBAT</t>
+  </si>
+  <si>
+    <t>HEADLIGHT_12V</t>
+  </si>
+  <si>
+    <t>BRAKE_SW</t>
+  </si>
+  <si>
+    <t>BRAKE_VBAT</t>
+  </si>
+  <si>
+    <t>BRAKE_12V</t>
+  </si>
+  <si>
+    <t>TRANS_PUMP_12V</t>
+  </si>
+  <si>
+    <t>IGN_SW</t>
+  </si>
+  <si>
+    <t>IGN_VBAT</t>
+  </si>
+  <si>
+    <t>FAN_12V</t>
+  </si>
+  <si>
+    <t>FAN_VBAT</t>
+  </si>
+  <si>
+    <t>ABS_20A_12V</t>
+  </si>
+  <si>
+    <t>ABS_5A_12V</t>
+  </si>
+  <si>
+    <t>ABS_BRAKE_SIG</t>
+  </si>
+  <si>
+    <t>MIKU_SW</t>
+  </si>
+  <si>
+    <t>MAIN_VBAT</t>
+  </si>
+  <si>
+    <t>MAIN_12V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +815,12 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -922,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1037,158 +1217,212 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1383,103 +1617,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4084067" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62664C6D-7CD0-4F25-8E42-F97D72028A26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8775700" y="7861300"/>
-          <a:ext cx="4084067" cy="937629"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="22225">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>OUT OF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="22225">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> DATE</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1583,7 +1720,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1720,7 +1857,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1996,7 +2133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2361,8 +2498,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="39.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2386,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2</v>
@@ -2398,7 +2535,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>9</v>
@@ -2406,78 +2543,78 @@
     </row>
     <row r="2" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2488,48 +2625,48 @@
         <v>8</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2540,19 +2677,19 @@
         <v>76</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H7" s="38"/>
     </row>
@@ -2564,46 +2701,46 @@
         <v>5</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2614,121 +2751,121 @@
         <v>76</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>161</v>
+        <v>119</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="F12" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>123</v>
-      </c>
       <c r="G12" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="75" t="s">
-        <v>162</v>
+      <c r="H13" s="42" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>125</v>
+      <c r="E14" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H14" s="38"/>
     </row>
@@ -2740,48 +2877,48 @@
         <v>76</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2792,48 +2929,48 @@
         <v>76</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2844,117 +2981,117 @@
         <v>76</v>
       </c>
       <c r="C19" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>131</v>
-      </c>
       <c r="E19" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>160</v>
+        <v>119</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H23" s="38"/>
     </row>
@@ -2966,43 +3103,43 @@
         <v>16</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H25" s="38"/>
     </row>
@@ -3559,7 +3696,7 @@
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="46" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3572,7 +3709,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="26"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="43"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
@@ -3583,7 +3720,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="26"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="43"/>
+      <c r="I33" s="47"/>
     </row>
     <row r="34" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
@@ -3594,7 +3731,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="26"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="44"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
@@ -3611,7 +3748,7 @@
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="42" t="s">
+      <c r="I35" s="46" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3624,7 +3761,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="26"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="43"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
@@ -3635,7 +3772,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="26"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="43"/>
+      <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="37"/>
@@ -3646,7 +3783,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="26"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="44"/>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="37"/>
@@ -3663,7 +3800,7 @@
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="46" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3676,7 +3813,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="26"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="43"/>
+      <c r="I40" s="47"/>
     </row>
     <row r="41" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="37"/>
@@ -3687,7 +3824,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="26"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="43"/>
+      <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="37"/>
@@ -3698,7 +3835,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="26"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="44"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="37"/>
@@ -4104,7 +4241,7 @@
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
-      <c r="I74" s="42" t="s">
+      <c r="I74" s="46" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4117,7 +4254,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
-      <c r="I75" s="43"/>
+      <c r="I75" s="47"/>
     </row>
     <row r="76" spans="1:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="37"/>
@@ -4128,7 +4265,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="43"/>
+      <c r="I76" s="47"/>
     </row>
     <row r="77" spans="1:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="37"/>
@@ -4139,7 +4276,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
-      <c r="I77" s="44"/>
+      <c r="I77" s="48"/>
     </row>
     <row r="78" spans="1:11" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="37"/>
@@ -4334,18 +4471,18 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="R2" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -4489,7 +4626,7 @@
         <v>18</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="18:19" x14ac:dyDescent="0.35">
@@ -4505,7 +4642,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="18:19" x14ac:dyDescent="0.35">
@@ -4513,7 +4650,7 @@
         <v>21</v>
       </c>
       <c r="S23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="18:19" x14ac:dyDescent="0.35">
@@ -4521,7 +4658,7 @@
         <v>22</v>
       </c>
       <c r="S24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="18:19" x14ac:dyDescent="0.35">
@@ -4545,12 +4682,12 @@
         <v>25</v>
       </c>
       <c r="S27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R28" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="18:19" x14ac:dyDescent="0.35">
@@ -4608,7 +4745,7 @@
         <v>8</v>
       </c>
       <c r="S36" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -4616,21 +4753,21 @@
         <v>9</v>
       </c>
       <c r="S37" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R38">
         <v>10</v>
       </c>
       <c r="S38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -4755,7 +4892,7 @@
     </row>
     <row r="54" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R54" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="18:20" x14ac:dyDescent="0.35">
@@ -4787,7 +4924,7 @@
         <v>4</v>
       </c>
       <c r="S58" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="18:20" x14ac:dyDescent="0.35">
@@ -4819,10 +4956,10 @@
         <v>8</v>
       </c>
       <c r="S62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="T62" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="18:20" x14ac:dyDescent="0.35">
@@ -4838,7 +4975,7 @@
         <v>10</v>
       </c>
       <c r="S64" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
@@ -4872,28 +5009,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.36328125" customWidth="1"/>
+    <col min="15" max="17" width="15.453125" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
+    <col min="19" max="19" width="18.26953125" customWidth="1"/>
+    <col min="20" max="20" width="18.6328125" customWidth="1"/>
+    <col min="21" max="23" width="15.453125" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="17.7265625" customWidth="1"/>
+    <col min="26" max="26" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="O1" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -4930,207 +5087,398 @@
       <c r="M2">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="O2" s="43">
+        <v>1</v>
+      </c>
+      <c r="P2" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>9</v>
+      </c>
+      <c r="R2" s="43">
+        <v>13</v>
+      </c>
+      <c r="S2" s="43">
+        <v>17</v>
+      </c>
+      <c r="T2" s="43">
+        <v>21</v>
+      </c>
+      <c r="U2" s="43">
+        <v>25</v>
+      </c>
+      <c r="V2" s="43">
+        <v>29</v>
+      </c>
+      <c r="W2" s="43">
+        <v>33</v>
+      </c>
+      <c r="X2" s="43">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="43">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="61" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="46" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="T3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3">
+      <c r="M3" s="76"/>
+      <c r="O3" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="T3" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="V3" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="W3" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X3" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y3" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z3" s="100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="O4" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="S4" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="T4" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="U4" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="V4" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="W4" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X4" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y4" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="61"/>
+      <c r="L5" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="O5" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="S5" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="U5" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="V5" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="W5" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X5" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z5" s="100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="O6" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="S6" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="T6" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="V6" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="W6" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X6" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y6" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B7" s="43">
+        <v>4</v>
+      </c>
+      <c r="C7" s="43">
+        <v>8</v>
+      </c>
+      <c r="D7" s="43">
+        <v>12</v>
+      </c>
+      <c r="E7" s="43">
+        <v>16</v>
+      </c>
+      <c r="F7" s="43">
+        <v>20</v>
+      </c>
+      <c r="G7" s="43">
         <v>24</v>
       </c>
-      <c r="V3">
+      <c r="H7" s="43">
+        <v>28</v>
+      </c>
+      <c r="I7" s="43">
+        <v>32</v>
+      </c>
+      <c r="J7" s="43">
+        <v>36</v>
+      </c>
+      <c r="K7" s="43">
+        <v>40</v>
+      </c>
+      <c r="L7" s="43">
+        <v>44</v>
+      </c>
+      <c r="M7" s="43">
+        <v>48</v>
+      </c>
+      <c r="O7" s="43">
+        <v>4</v>
+      </c>
+      <c r="P7" s="43">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>12</v>
+      </c>
+      <c r="R7" s="43">
+        <v>16</v>
+      </c>
+      <c r="S7" s="43">
+        <v>20</v>
+      </c>
+      <c r="T7" s="43">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
-      <c r="T4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-      <c r="V4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="47"/>
-      <c r="T5" t="s">
-        <v>82</v>
-      </c>
-      <c r="U5">
-        <v>10</v>
-      </c>
-      <c r="V5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="76">
-        <v>4</v>
-      </c>
-      <c r="C7" s="76">
-        <v>8</v>
-      </c>
-      <c r="D7" s="76">
-        <v>12</v>
-      </c>
-      <c r="E7" s="76">
-        <v>16</v>
-      </c>
-      <c r="F7" s="76">
-        <v>20</v>
-      </c>
-      <c r="G7" s="76">
-        <v>24</v>
-      </c>
-      <c r="H7" s="76">
+      <c r="U7" s="43">
         <v>28</v>
       </c>
-      <c r="I7" s="76">
+      <c r="V7" s="43">
         <v>32</v>
       </c>
-      <c r="J7" s="76">
+      <c r="W7" s="43">
         <v>36</v>
       </c>
-      <c r="K7" s="76">
+      <c r="X7" s="43">
         <v>40</v>
       </c>
-      <c r="L7" s="76">
+      <c r="Y7" s="43">
         <v>44</v>
       </c>
-      <c r="M7" s="76">
+      <c r="Z7" s="43">
         <v>48</v>
       </c>
-      <c r="T7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="T8" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8">
-        <v>5</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B9" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="O9" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1</v>
       </c>
@@ -5167,149 +5515,379 @@
       <c r="M10">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="82" t="s">
+      <c r="O10" s="43">
+        <v>1</v>
+      </c>
+      <c r="P10" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="43">
+        <v>9</v>
+      </c>
+      <c r="R10" s="43">
+        <v>13</v>
+      </c>
+      <c r="S10" s="43">
+        <v>17</v>
+      </c>
+      <c r="T10" s="43">
+        <v>21</v>
+      </c>
+      <c r="U10" s="43">
+        <v>25</v>
+      </c>
+      <c r="V10" s="43">
+        <v>29</v>
+      </c>
+      <c r="W10" s="43">
+        <v>33</v>
+      </c>
+      <c r="X10" s="43">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="43">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B11" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="86" t="s">
+      <c r="K11" s="59"/>
+      <c r="L11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="86"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="87" t="s">
+      <c r="M11" s="57"/>
+      <c r="O11" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="R11" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="T11" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="W11" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X11" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y11" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z11" s="106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="83" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="O12" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="P12" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="R12" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="S12" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="T12" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="U12" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="V12" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="W12" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X12" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y12" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z12" s="106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="57"/>
+      <c r="O13" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="86"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="87"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="76">
+      <c r="P13" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="R13" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="S13" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="U13" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="V13" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="W13" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X13" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z13" s="106" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="O14" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="R14" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="S14" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="T14" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="U14" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="V14" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X14" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y14" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z14" s="110" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B15" s="43">
         <v>4</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="43">
         <v>8</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="43">
         <v>12</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="43">
         <v>16</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="43">
         <v>20</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="43">
         <v>24</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="43">
         <v>28</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="43">
         <v>32</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="43">
         <v>36</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="43">
         <v>40</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="43">
         <v>44</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="43">
         <v>48</v>
       </c>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O15" s="43">
+        <v>4</v>
+      </c>
+      <c r="P15" s="43">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="43">
+        <v>12</v>
+      </c>
+      <c r="R15" s="43">
+        <v>16</v>
+      </c>
+      <c r="S15" s="43">
+        <v>20</v>
+      </c>
+      <c r="T15" s="43">
+        <v>24</v>
+      </c>
+      <c r="U15" s="43">
+        <v>28</v>
+      </c>
+      <c r="V15" s="43">
+        <v>32</v>
+      </c>
+      <c r="W15" s="43">
+        <v>36</v>
+      </c>
+      <c r="X15" s="43">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="43">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>1</v>
       </c>
@@ -5346,142 +5924,390 @@
       <c r="M18">
         <v>67</v>
       </c>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B19" s="86" t="s">
+      <c r="O18" s="43">
+        <v>1</v>
+      </c>
+      <c r="P18" s="43">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="43">
+        <v>13</v>
+      </c>
+      <c r="R18" s="43">
+        <v>19</v>
+      </c>
+      <c r="S18" s="43">
+        <v>25</v>
+      </c>
+      <c r="T18" s="43">
+        <v>31</v>
+      </c>
+      <c r="U18" s="43">
+        <v>37</v>
+      </c>
+      <c r="V18" s="43">
+        <v>43</v>
+      </c>
+      <c r="W18" s="43">
+        <v>49</v>
+      </c>
+      <c r="X18" s="43">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="43">
+        <v>61</v>
+      </c>
+      <c r="Z18" s="43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B19" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="O19" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="R19" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="S19" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="V19" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="W19" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="X19" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y19" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z19" s="94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="54"/>
+      <c r="O20" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q20" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="R20" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="S20" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="T20" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="V20" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="W20" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y20" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z20" s="94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B21" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="51"/>
+      <c r="J21" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87" t="s">
+      <c r="M21" s="57"/>
+      <c r="O21" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="R21" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="S21" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="T21" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="U21" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="V21" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="W21" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y21" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z21" s="106" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="87"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="85"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B21" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="86"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="90"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-    </row>
-    <row r="23" spans="2:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86" t="s">
+      <c r="K22" s="58"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="O22" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="P22" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="77" t="s">
+      <c r="Q22" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="R22" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="T22" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="U22" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="V22" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="86"/>
-    </row>
-    <row r="24" spans="2:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="82"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="W22" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X22" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y22" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z22" s="106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="58"/>
+      <c r="L23" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="57"/>
+      <c r="O23" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q23" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="R23" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="S23" s="106" t="s">
+        <v>197</v>
+      </c>
+      <c r="T23" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="U23" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="V23" s="106" t="s">
+        <v>217</v>
+      </c>
+      <c r="W23" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="X23" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y23" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z23" s="106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="59"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="O24" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="R24" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="S24" s="106" t="s">
+        <v>205</v>
+      </c>
+      <c r="T24" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="U24" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="V24" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="W24" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="X24" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" s="106" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z24" s="106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>6</v>
       </c>
@@ -5518,18 +6344,54 @@
       <c r="M25">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G28" s="60" t="s">
+      <c r="O25" s="43">
+        <v>6</v>
+      </c>
+      <c r="P25" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>18</v>
+      </c>
+      <c r="R25" s="43">
+        <v>24</v>
+      </c>
+      <c r="S25" s="43">
+        <v>30</v>
+      </c>
+      <c r="T25" s="43">
+        <v>36</v>
+      </c>
+      <c r="U25" s="43">
+        <v>42</v>
+      </c>
+      <c r="V25" s="43">
+        <v>48</v>
+      </c>
+      <c r="W25" s="43">
+        <v>54</v>
+      </c>
+      <c r="X25" s="43">
+        <v>60</v>
+      </c>
+      <c r="Y25" s="43">
+        <v>66</v>
+      </c>
+      <c r="Z25" s="43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
       <c r="K28" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>86</v>
       </c>
@@ -5544,7 +6406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>87</v>
       </c>
@@ -5559,79 +6421,79 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="G31" s="61" t="s">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="G31" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="66"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="88"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="47"/>
+      <c r="H37" s="76"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="78"/>
     </row>
     <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="57"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="59"/>
+      <c r="H40" s="82"/>
     </row>
     <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="71"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G42" s="27" t="s">
@@ -5640,7 +6502,53 @@
       <c r="H42" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="59">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="G31:I34"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="G11:I12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F21:G22"/>
     <mergeCell ref="H21:I22"/>
     <mergeCell ref="J21:K21"/>
@@ -5652,58 +6560,12 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="I19:K20"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="G31:I34"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="G11:I12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="L13:M14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup scale="38" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5728,13 +6590,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -5902,12 +6764,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -5930,12 +6792,12 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -6105,12 +6967,12 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
